--- a/dist/data/profiles/xlsx/bluff/profile 37-3 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 37-3 graph.xlsx
@@ -13873,11 +13873,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="75734538"/>
-        <c:axId val="53234552"/>
+        <c:axId val="13060858"/>
+        <c:axId val="42524085"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75734538"/>
+        <c:axId val="13060858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13912,12 +13912,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53234552"/>
+        <c:crossAx val="42524085"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53234552"/>
+        <c:axId val="42524085"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13961,7 +13961,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75734538"/>
+        <c:crossAx val="13060858"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
